--- a/docs/StructureDefinition-VA.MHV.PHR.irOrder.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.irOrder.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
